--- a/2025/01-brumov/01-VKCT2025-Brumov.xlsx
+++ b/2025/01-brumov/01-VKCT2025-Brumov.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Předškoláci I" sheetId="1" state="visible" r:id="rId3"/>
@@ -2089,7 +2089,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm:ss"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2138,6 +2138,16 @@
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <u val="single"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2193,7 +2203,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2235,6 +2245,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10588,8 +10602,8 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10830,8 +10844,8 @@
       <c r="C11" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="1" t="n">
-        <v>2020</v>
+      <c r="D11" s="11" t="n">
+        <v>2021</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>148</v>
@@ -11296,7 +11310,7 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -12085,7 +12099,7 @@
       <c r="A7" s="1" t="n">
         <v>269</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>226</v>
       </c>
       <c r="C7" s="1" t="s">

--- a/2025/01-brumov/01-VKCT2025-Brumov.xlsx
+++ b/2025/01-brumov/01-VKCT2025-Brumov.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Předškoláci I" sheetId="1" state="visible" r:id="rId3"/>
@@ -4511,7 +4511,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5606,8 +5606,8 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5703,8 +5703,8 @@
       <c r="C5" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <v>2007</v>
+      <c r="D5" s="11" t="n">
+        <v>2008</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>393</v>
@@ -10602,7 +10602,7 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
